--- a/ProAska/meta/ProAska_DPro23-8557_meta.xlsx
+++ b/ProAska/meta/ProAska_DPro23-8557_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eilishmcmaster/Documents/ProAska/ProAska/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75D88A3-EE7B-094E-AC3C-D4956F64A3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC69FA2-DB60-8942-8463-83E71B2BEFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPro23-8557_Prostanthera specie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Trevor notes" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DPro23-8557_Prostanthera specie'!$A$1:$Q$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DPro23-8557_Prostanthera specie'!$A$1:$R$194</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'General notes'!$E$1:$E$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="583">
   <si>
     <t>NSW1159941</t>
   </si>
@@ -2234,6 +2234,12 @@
   </si>
   <si>
     <t>TheRidgeway</t>
+  </si>
+  <si>
+    <t>bouddi_vs_all</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -3016,9 +3022,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3056,7 +3062,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3162,7 +3168,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3304,7 +3310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3312,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3325,19 +3331,20 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
-    <col min="12" max="12" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>240</v>
       </c>
@@ -3357,40 +3364,43 @@
         <v>241</v>
       </c>
       <c r="G1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" t="s">
         <v>551</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>549</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>550</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>564</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>560</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>561</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>565</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>566</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>567</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>568</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3410,10 +3420,10 @@
         <v>272</v>
       </c>
       <c r="G2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" t="s">
         <v>577</v>
-      </c>
-      <c r="H2" t="s">
-        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>272</v>
@@ -3430,11 +3440,14 @@
       <c r="M2" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="N2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -3454,10 +3467,10 @@
         <v>272</v>
       </c>
       <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
         <v>577</v>
-      </c>
-      <c r="H3" t="s">
-        <v>272</v>
       </c>
       <c r="I3" t="s">
         <v>272</v>
@@ -3474,11 +3487,14 @@
       <c r="M3" t="s">
         <v>272</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="N3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -3498,10 +3514,10 @@
         <v>272</v>
       </c>
       <c r="G4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4" t="s">
         <v>577</v>
-      </c>
-      <c r="H4" t="s">
-        <v>272</v>
       </c>
       <c r="I4" t="s">
         <v>272</v>
@@ -3518,286 +3534,274 @@
       <c r="M4" t="s">
         <v>272</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="N4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C5">
-        <v>-33.356707</v>
+        <v>-33.507801000000001</v>
       </c>
       <c r="D5">
-        <v>151.412993</v>
+        <v>151.418453</v>
       </c>
       <c r="E5" t="s">
         <v>570</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J5" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C6">
-        <v>-33.357053999999998</v>
+        <v>-33.507755000000003</v>
       </c>
       <c r="D6">
-        <v>151.413377</v>
+        <v>151.41814500000001</v>
       </c>
       <c r="E6" t="s">
         <v>570</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="R6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C7">
-        <v>-33.357101999999998</v>
+        <v>-33.507810999999997</v>
       </c>
       <c r="D7">
-        <v>151.41341600000001</v>
+        <v>151.41859099999999</v>
       </c>
       <c r="E7" t="s">
         <v>570</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H7" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C8">
-        <v>-33.357033000000001</v>
+        <v>-33.507973999999997</v>
       </c>
       <c r="D8">
-        <v>151.41332199999999</v>
+        <v>151.418451</v>
       </c>
       <c r="E8" t="s">
         <v>570</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C9">
-        <v>-33.381310999999997</v>
+        <v>-33.507945999999997</v>
       </c>
       <c r="D9">
-        <v>151.32604499999999</v>
+        <v>151.41848899999999</v>
       </c>
       <c r="E9" t="s">
         <v>570</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J9" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L9" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C10">
-        <v>-33.343743000000003</v>
+        <v>-33.507961000000002</v>
       </c>
       <c r="D10">
-        <v>151.41551000000001</v>
+        <v>151.41870700000001</v>
       </c>
       <c r="E10" t="s">
         <v>570</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>578</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K10" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L10" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M10" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>196</v>
       </c>
       <c r="C11">
-        <v>-33.343218</v>
+        <v>-33.356707</v>
       </c>
       <c r="D11">
-        <v>151.41396900000001</v>
+        <v>151.412993</v>
       </c>
       <c r="E11" t="s">
         <v>570</v>
@@ -3806,10 +3810,10 @@
         <v>275</v>
       </c>
       <c r="G11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H11" t="s">
         <v>578</v>
-      </c>
-      <c r="H11" t="s">
-        <v>275</v>
       </c>
       <c r="I11" t="s">
         <v>275</v>
@@ -3826,280 +3830,307 @@
       <c r="M11" t="s">
         <v>275</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="N11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C12">
-        <v>-33.507801000000001</v>
+        <v>-33.357053999999998</v>
       </c>
       <c r="D12">
-        <v>151.418453</v>
+        <v>151.413377</v>
       </c>
       <c r="E12" t="s">
         <v>570</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>578</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="M12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N12" t="s">
+        <v>275</v>
+      </c>
+      <c r="R12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C13">
-        <v>-33.376435999999998</v>
+        <v>-33.357101999999998</v>
       </c>
       <c r="D13">
-        <v>151.35556700000001</v>
+        <v>151.41341600000001</v>
       </c>
       <c r="E13" t="s">
         <v>570</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H13" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="N13" t="s">
+        <v>275</v>
+      </c>
+      <c r="R13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C14">
-        <v>-33.374612999999997</v>
+        <v>-33.357033000000001</v>
       </c>
       <c r="D14">
-        <v>151.355311</v>
+        <v>151.41332199999999</v>
       </c>
       <c r="E14" t="s">
         <v>570</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="N14" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C15">
-        <v>-33.375590000000003</v>
+        <v>-33.381310999999997</v>
       </c>
       <c r="D15">
-        <v>151.347691</v>
+        <v>151.32604499999999</v>
       </c>
       <c r="E15" t="s">
         <v>570</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M15" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="N15" t="s">
+        <v>275</v>
+      </c>
+      <c r="R15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C16">
-        <v>-33.375005000000002</v>
+        <v>-33.343743000000003</v>
       </c>
       <c r="D16">
-        <v>151.35671199999999</v>
+        <v>151.41551000000001</v>
       </c>
       <c r="E16" t="s">
         <v>570</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="N16" t="s">
+        <v>275</v>
+      </c>
+      <c r="R16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C17">
-        <v>-33.375521999999997</v>
+        <v>-33.343218</v>
       </c>
       <c r="D17">
-        <v>151.34765100000001</v>
+        <v>151.41396900000001</v>
       </c>
       <c r="E17" t="s">
         <v>570</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H17" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="I17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M17" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="N17" t="s">
+        <v>275</v>
+      </c>
+      <c r="R17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>190</v>
       </c>
       <c r="C18">
-        <v>-33.375777999999997</v>
+        <v>-33.376435999999998</v>
       </c>
       <c r="D18">
-        <v>151.34765999999999</v>
+        <v>151.35556700000001</v>
       </c>
       <c r="E18" t="s">
         <v>570</v>
@@ -4108,10 +4139,10 @@
         <v>276</v>
       </c>
       <c r="G18" t="s">
+        <v>582</v>
+      </c>
+      <c r="H18" t="s">
         <v>579</v>
-      </c>
-      <c r="H18" t="s">
-        <v>276</v>
       </c>
       <c r="I18" t="s">
         <v>276</v>
@@ -4128,22 +4159,25 @@
       <c r="M18" t="s">
         <v>276</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="N18" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>190</v>
       </c>
       <c r="C19">
-        <v>-33.375050999999999</v>
+        <v>-33.374612999999997</v>
       </c>
       <c r="D19">
-        <v>151.35661999999999</v>
+        <v>151.355311</v>
       </c>
       <c r="E19" t="s">
         <v>570</v>
@@ -4152,10 +4186,10 @@
         <v>276</v>
       </c>
       <c r="G19" t="s">
+        <v>582</v>
+      </c>
+      <c r="H19" t="s">
         <v>579</v>
-      </c>
-      <c r="H19" t="s">
-        <v>276</v>
       </c>
       <c r="I19" t="s">
         <v>276</v>
@@ -4172,22 +4206,25 @@
       <c r="M19" t="s">
         <v>276</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="N19" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>190</v>
       </c>
       <c r="C20">
-        <v>-33.375658999999999</v>
+        <v>-33.375590000000003</v>
       </c>
       <c r="D20">
-        <v>151.34756300000001</v>
+        <v>151.347691</v>
       </c>
       <c r="E20" t="s">
         <v>570</v>
@@ -4196,10 +4233,10 @@
         <v>276</v>
       </c>
       <c r="G20" t="s">
+        <v>582</v>
+      </c>
+      <c r="H20" t="s">
         <v>579</v>
-      </c>
-      <c r="H20" t="s">
-        <v>276</v>
       </c>
       <c r="I20" t="s">
         <v>276</v>
@@ -4216,22 +4253,25 @@
       <c r="M20" t="s">
         <v>276</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="N20" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>190</v>
       </c>
       <c r="C21">
-        <v>-33.375852000000002</v>
+        <v>-33.375005000000002</v>
       </c>
       <c r="D21">
-        <v>151.34757400000001</v>
+        <v>151.35671199999999</v>
       </c>
       <c r="E21" t="s">
         <v>570</v>
@@ -4240,10 +4280,10 @@
         <v>276</v>
       </c>
       <c r="G21" t="s">
+        <v>582</v>
+      </c>
+      <c r="H21" t="s">
         <v>579</v>
-      </c>
-      <c r="H21" t="s">
-        <v>276</v>
       </c>
       <c r="I21" t="s">
         <v>276</v>
@@ -4260,22 +4300,25 @@
       <c r="M21" t="s">
         <v>276</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="N21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>190</v>
       </c>
       <c r="C22">
-        <v>-33.374327000000001</v>
+        <v>-33.375521999999997</v>
       </c>
       <c r="D22">
-        <v>151.355086</v>
+        <v>151.34765100000001</v>
       </c>
       <c r="E22" t="s">
         <v>570</v>
@@ -4284,10 +4327,10 @@
         <v>276</v>
       </c>
       <c r="G22" t="s">
+        <v>582</v>
+      </c>
+      <c r="H22" t="s">
         <v>579</v>
-      </c>
-      <c r="H22" t="s">
-        <v>276</v>
       </c>
       <c r="I22" t="s">
         <v>276</v>
@@ -4304,22 +4347,25 @@
       <c r="M22" t="s">
         <v>276</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="N22" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>190</v>
       </c>
       <c r="C23">
-        <v>-33.375444999999999</v>
+        <v>-33.375777999999997</v>
       </c>
       <c r="D23">
-        <v>151.355966</v>
+        <v>151.34765999999999</v>
       </c>
       <c r="E23" t="s">
         <v>570</v>
@@ -4328,10 +4374,10 @@
         <v>276</v>
       </c>
       <c r="G23" t="s">
+        <v>582</v>
+      </c>
+      <c r="H23" t="s">
         <v>579</v>
-      </c>
-      <c r="H23" t="s">
-        <v>276</v>
       </c>
       <c r="I23" t="s">
         <v>276</v>
@@ -4348,22 +4394,25 @@
       <c r="M23" t="s">
         <v>276</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="N23" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>190</v>
       </c>
       <c r="C24">
-        <v>-33.375782999999998</v>
+        <v>-33.375050999999999</v>
       </c>
       <c r="D24">
-        <v>151.347509</v>
+        <v>151.35661999999999</v>
       </c>
       <c r="E24" t="s">
         <v>570</v>
@@ -4372,10 +4421,10 @@
         <v>276</v>
       </c>
       <c r="G24" t="s">
+        <v>582</v>
+      </c>
+      <c r="H24" t="s">
         <v>579</v>
-      </c>
-      <c r="H24" t="s">
-        <v>276</v>
       </c>
       <c r="I24" t="s">
         <v>276</v>
@@ -4392,283 +4441,307 @@
       <c r="M24" t="s">
         <v>276</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="N24" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25">
-        <v>-33.354121999999997</v>
+        <v>-33.375658999999999</v>
       </c>
       <c r="D25">
-        <v>151.32588799999999</v>
+        <v>151.34756300000001</v>
       </c>
       <c r="E25" t="s">
         <v>570</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="H25" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="N25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26">
-        <v>-33.350900000000003</v>
+        <v>-33.375852000000002</v>
       </c>
       <c r="D26">
-        <v>151.32533100000001</v>
+        <v>151.34757400000001</v>
       </c>
       <c r="E26" t="s">
         <v>570</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="N26" t="s">
+        <v>276</v>
+      </c>
+      <c r="R26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27">
-        <v>-33.353679</v>
+        <v>-33.374327000000001</v>
       </c>
       <c r="D27">
-        <v>151.325771</v>
+        <v>151.355086</v>
       </c>
       <c r="E27" t="s">
         <v>570</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="N27" t="s">
+        <v>276</v>
+      </c>
+      <c r="R27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28">
-        <v>-33.354488000000003</v>
+        <v>-33.375444999999999</v>
       </c>
       <c r="D28">
-        <v>151.32387499999999</v>
+        <v>151.355966</v>
       </c>
       <c r="E28" t="s">
         <v>570</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="R28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29">
-        <v>-33.358289999999997</v>
+        <v>-33.375782999999998</v>
       </c>
       <c r="D29">
-        <v>151.32903200000001</v>
+        <v>151.347509</v>
       </c>
       <c r="E29" t="s">
         <v>570</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
+        <v>582</v>
+      </c>
+      <c r="H29" t="s">
+        <v>579</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s">
+        <v>276</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="R29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>191</v>
       </c>
-      <c r="H29" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29" t="s">
-        <v>243</v>
-      </c>
-      <c r="J29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K29" t="s">
-        <v>243</v>
-      </c>
-      <c r="L29" t="s">
-        <v>243</v>
-      </c>
-      <c r="M29" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>205</v>
-      </c>
       <c r="C30">
-        <v>-33.507755000000003</v>
+        <v>-33.354121999999997</v>
       </c>
       <c r="D30">
-        <v>151.41814500000001</v>
+        <v>151.32588799999999</v>
       </c>
       <c r="E30" t="s">
         <v>570</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="M30" t="s">
+        <v>243</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="R30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>191</v>
       </c>
       <c r="C31">
-        <v>-33.352795</v>
+        <v>-33.350900000000003</v>
       </c>
       <c r="D31">
-        <v>151.32585900000001</v>
+        <v>151.32533100000001</v>
       </c>
       <c r="E31" t="s">
         <v>570</v>
@@ -4677,10 +4750,10 @@
         <v>243</v>
       </c>
       <c r="G31" t="s">
+        <v>582</v>
+      </c>
+      <c r="H31" t="s">
         <v>191</v>
-      </c>
-      <c r="H31" t="s">
-        <v>243</v>
       </c>
       <c r="I31" t="s">
         <v>243</v>
@@ -4697,22 +4770,25 @@
       <c r="M31" t="s">
         <v>243</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="N31" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>191</v>
       </c>
       <c r="C32">
-        <v>-33.350144999999998</v>
+        <v>-33.353679</v>
       </c>
       <c r="D32">
-        <v>151.32641899999999</v>
+        <v>151.325771</v>
       </c>
       <c r="E32" t="s">
         <v>570</v>
@@ -4721,10 +4797,10 @@
         <v>243</v>
       </c>
       <c r="G32" t="s">
+        <v>582</v>
+      </c>
+      <c r="H32" t="s">
         <v>191</v>
-      </c>
-      <c r="H32" t="s">
-        <v>243</v>
       </c>
       <c r="I32" t="s">
         <v>243</v>
@@ -4741,22 +4817,25 @@
       <c r="M32" t="s">
         <v>243</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="N32" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>191</v>
       </c>
       <c r="C33">
-        <v>-33.350158999999998</v>
+        <v>-33.354488000000003</v>
       </c>
       <c r="D33">
-        <v>151.32225199999999</v>
+        <v>151.32387499999999</v>
       </c>
       <c r="E33" t="s">
         <v>570</v>
@@ -4765,10 +4844,10 @@
         <v>243</v>
       </c>
       <c r="G33" t="s">
+        <v>582</v>
+      </c>
+      <c r="H33" t="s">
         <v>191</v>
-      </c>
-      <c r="H33" t="s">
-        <v>243</v>
       </c>
       <c r="I33" t="s">
         <v>243</v>
@@ -4785,180 +4864,213 @@
       <c r="M33" t="s">
         <v>243</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="N33" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C34">
-        <v>-33.379902999999999</v>
+        <v>-33.358289999999997</v>
       </c>
       <c r="D34">
-        <v>151.32647700000001</v>
+        <v>151.32903200000001</v>
       </c>
       <c r="E34" t="s">
         <v>570</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
+        <v>582</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="R34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C35">
-        <v>-33.507810999999997</v>
+        <v>-33.352795</v>
       </c>
       <c r="D35">
-        <v>151.41859099999999</v>
+        <v>151.32585900000001</v>
       </c>
       <c r="E35" t="s">
         <v>570</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="M35" t="s">
+        <v>243</v>
+      </c>
+      <c r="N35" t="s">
+        <v>243</v>
+      </c>
+      <c r="R35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C36">
-        <v>-33.507973999999997</v>
+        <v>-33.350144999999998</v>
       </c>
       <c r="D36">
-        <v>151.418451</v>
+        <v>151.32641899999999</v>
       </c>
       <c r="E36" t="s">
         <v>570</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="H36" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="M36" t="s">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s">
+        <v>243</v>
+      </c>
+      <c r="R36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C37">
-        <v>-33.507945999999997</v>
+        <v>-33.350158999999998</v>
       </c>
       <c r="D37">
-        <v>151.41848899999999</v>
+        <v>151.32225199999999</v>
       </c>
       <c r="E37" t="s">
         <v>570</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s">
+        <v>243</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="R37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>206</v>
       </c>
       <c r="C38">
-        <v>-33.381042000000001</v>
+        <v>-33.379902999999999</v>
       </c>
       <c r="D38">
-        <v>151.32594499999999</v>
+        <v>151.32647700000001</v>
       </c>
       <c r="E38" t="s">
         <v>570</v>
@@ -4967,10 +5079,10 @@
         <v>251</v>
       </c>
       <c r="G38" t="s">
+        <v>582</v>
+      </c>
+      <c r="H38" t="s">
         <v>206</v>
-      </c>
-      <c r="H38" t="s">
-        <v>251</v>
       </c>
       <c r="I38" t="s">
         <v>251</v>
@@ -4987,25 +5099,25 @@
       <c r="M38" t="s">
         <v>251</v>
       </c>
-      <c r="P38" t="s">
+      <c r="N38" t="s">
         <v>251</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>206</v>
       </c>
       <c r="C39">
-        <v>-33.379930000000002</v>
+        <v>-33.381042000000001</v>
       </c>
       <c r="D39">
-        <v>151.32646099999999</v>
+        <v>151.32594499999999</v>
       </c>
       <c r="E39" t="s">
         <v>570</v>
@@ -5014,10 +5126,10 @@
         <v>251</v>
       </c>
       <c r="G39" t="s">
+        <v>582</v>
+      </c>
+      <c r="H39" t="s">
         <v>206</v>
-      </c>
-      <c r="H39" t="s">
-        <v>251</v>
       </c>
       <c r="I39" t="s">
         <v>251</v>
@@ -5034,25 +5146,28 @@
       <c r="M39" t="s">
         <v>251</v>
       </c>
-      <c r="P39" t="s">
+      <c r="N39" t="s">
         <v>251</v>
       </c>
       <c r="Q39" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>206</v>
       </c>
       <c r="C40">
-        <v>-33.381062</v>
+        <v>-33.379930000000002</v>
       </c>
       <c r="D40">
-        <v>151.32597200000001</v>
+        <v>151.32646099999999</v>
       </c>
       <c r="E40" t="s">
         <v>570</v>
@@ -5061,10 +5176,10 @@
         <v>251</v>
       </c>
       <c r="G40" t="s">
+        <v>582</v>
+      </c>
+      <c r="H40" t="s">
         <v>206</v>
-      </c>
-      <c r="H40" t="s">
-        <v>251</v>
       </c>
       <c r="I40" t="s">
         <v>251</v>
@@ -5081,66 +5196,78 @@
       <c r="M40" t="s">
         <v>251</v>
       </c>
-      <c r="P40" t="s">
+      <c r="N40" t="s">
         <v>251</v>
       </c>
       <c r="Q40" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C41">
-        <v>-33.382863</v>
+        <v>-33.381062</v>
       </c>
       <c r="D41">
-        <v>151.310576</v>
+        <v>151.32597200000001</v>
       </c>
       <c r="E41" t="s">
         <v>570</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>582</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>251</v>
       </c>
       <c r="K41" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s">
-        <v>245</v>
-      </c>
-      <c r="P41" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="M41" t="s">
+        <v>251</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
       </c>
       <c r="Q41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="R41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>203</v>
       </c>
       <c r="C42">
-        <v>-33.378324999999997</v>
+        <v>-33.382863</v>
       </c>
       <c r="D42">
-        <v>151.32780199999999</v>
+        <v>151.310576</v>
       </c>
       <c r="E42" t="s">
         <v>570</v>
@@ -5149,39 +5276,42 @@
         <v>245</v>
       </c>
       <c r="G42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H42" t="s">
         <v>203</v>
-      </c>
-      <c r="H42" t="s">
-        <v>245</v>
       </c>
       <c r="I42" t="s">
         <v>245</v>
       </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s">
         <v>245</v>
       </c>
       <c r="L42" t="s">
         <v>245</v>
       </c>
-      <c r="P42" t="s">
+      <c r="M42" t="s">
         <v>245</v>
       </c>
       <c r="Q42" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>203</v>
       </c>
       <c r="C43">
-        <v>-33.384205000000001</v>
+        <v>-33.378324999999997</v>
       </c>
       <c r="D43">
-        <v>151.309304</v>
+        <v>151.32780199999999</v>
       </c>
       <c r="E43" t="s">
         <v>570</v>
@@ -5190,39 +5320,42 @@
         <v>245</v>
       </c>
       <c r="G43" t="s">
+        <v>582</v>
+      </c>
+      <c r="H43" t="s">
         <v>203</v>
-      </c>
-      <c r="H43" t="s">
-        <v>245</v>
       </c>
       <c r="I43" t="s">
         <v>245</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s">
         <v>245</v>
       </c>
       <c r="L43" t="s">
         <v>245</v>
       </c>
-      <c r="P43" t="s">
+      <c r="M43" t="s">
         <v>245</v>
       </c>
       <c r="Q43" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
       <c r="C44">
-        <v>-33.384107</v>
+        <v>-33.384205000000001</v>
       </c>
       <c r="D44">
-        <v>151.30956499999999</v>
+        <v>151.309304</v>
       </c>
       <c r="E44" t="s">
         <v>570</v>
@@ -5231,39 +5364,42 @@
         <v>245</v>
       </c>
       <c r="G44" t="s">
+        <v>582</v>
+      </c>
+      <c r="H44" t="s">
         <v>203</v>
-      </c>
-      <c r="H44" t="s">
-        <v>245</v>
       </c>
       <c r="I44" t="s">
         <v>245</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
         <v>245</v>
       </c>
       <c r="L44" t="s">
         <v>245</v>
       </c>
-      <c r="P44" t="s">
+      <c r="M44" t="s">
         <v>245</v>
       </c>
       <c r="Q44" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
       </c>
       <c r="C45">
-        <v>-33.384819999999998</v>
+        <v>-33.384107</v>
       </c>
       <c r="D45">
-        <v>151.312973</v>
+        <v>151.30956499999999</v>
       </c>
       <c r="E45" t="s">
         <v>570</v>
@@ -5272,39 +5408,42 @@
         <v>245</v>
       </c>
       <c r="G45" t="s">
+        <v>582</v>
+      </c>
+      <c r="H45" t="s">
         <v>203</v>
-      </c>
-      <c r="H45" t="s">
-        <v>245</v>
       </c>
       <c r="I45" t="s">
         <v>245</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s">
         <v>245</v>
       </c>
       <c r="L45" t="s">
         <v>245</v>
       </c>
-      <c r="P45" t="s">
+      <c r="M45" t="s">
         <v>245</v>
       </c>
       <c r="Q45" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>203</v>
       </c>
       <c r="C46">
-        <v>-33.383904999999999</v>
+        <v>-33.384819999999998</v>
       </c>
       <c r="D46">
-        <v>151.310025</v>
+        <v>151.312973</v>
       </c>
       <c r="E46" t="s">
         <v>570</v>
@@ -5313,39 +5452,42 @@
         <v>245</v>
       </c>
       <c r="G46" t="s">
+        <v>582</v>
+      </c>
+      <c r="H46" t="s">
         <v>203</v>
-      </c>
-      <c r="H46" t="s">
-        <v>245</v>
       </c>
       <c r="I46" t="s">
         <v>245</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s">
         <v>245</v>
       </c>
       <c r="L46" t="s">
         <v>245</v>
       </c>
-      <c r="P46" t="s">
+      <c r="M46" t="s">
         <v>245</v>
       </c>
       <c r="Q46" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47">
-        <v>-33.382789000000002</v>
+        <v>-33.383904999999999</v>
       </c>
       <c r="D47">
-        <v>151.310554</v>
+        <v>151.310025</v>
       </c>
       <c r="E47" t="s">
         <v>570</v>
@@ -5354,83 +5496,86 @@
         <v>245</v>
       </c>
       <c r="G47" t="s">
+        <v>582</v>
+      </c>
+      <c r="H47" t="s">
         <v>203</v>
-      </c>
-      <c r="H47" t="s">
-        <v>245</v>
       </c>
       <c r="I47" t="s">
         <v>245</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s">
         <v>245</v>
       </c>
       <c r="L47" t="s">
         <v>245</v>
       </c>
-      <c r="P47" t="s">
+      <c r="M47" t="s">
         <v>245</v>
       </c>
       <c r="Q47" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C48">
-        <v>-33.385947999999999</v>
+        <v>-33.382789000000002</v>
       </c>
       <c r="D48">
-        <v>151.43521899999999</v>
+        <v>151.310554</v>
       </c>
       <c r="E48" t="s">
         <v>570</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J48" t="s">
-        <v>278</v>
-      </c>
-      <c r="K48" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="Q48" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="R48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>195</v>
       </c>
       <c r="C49">
-        <v>-33.386445999999999</v>
+        <v>-33.385947999999999</v>
       </c>
       <c r="D49">
-        <v>151.43518800000001</v>
+        <v>151.43521899999999</v>
       </c>
       <c r="E49" t="s">
         <v>570</v>
@@ -5439,10 +5584,10 @@
         <v>278</v>
       </c>
       <c r="G49" t="s">
+        <v>582</v>
+      </c>
+      <c r="H49" t="s">
         <v>580</v>
-      </c>
-      <c r="H49" t="s">
-        <v>278</v>
       </c>
       <c r="I49" t="s">
         <v>278</v>
@@ -5459,22 +5604,25 @@
       <c r="M49" t="s">
         <v>278</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="N49" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
         <v>195</v>
       </c>
       <c r="C50">
-        <v>-33.386898000000002</v>
+        <v>-33.386445999999999</v>
       </c>
       <c r="D50">
-        <v>151.43453</v>
+        <v>151.43518800000001</v>
       </c>
       <c r="E50" t="s">
         <v>570</v>
@@ -5483,10 +5631,10 @@
         <v>278</v>
       </c>
       <c r="G50" t="s">
+        <v>582</v>
+      </c>
+      <c r="H50" t="s">
         <v>580</v>
-      </c>
-      <c r="H50" t="s">
-        <v>278</v>
       </c>
       <c r="I50" t="s">
         <v>278</v>
@@ -5503,549 +5651,564 @@
       <c r="M50" t="s">
         <v>278</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="N50" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C51">
-        <v>-17.203610999999999</v>
+        <v>-33.386898000000002</v>
       </c>
       <c r="D51">
-        <v>145.40694400000001</v>
+        <v>151.43453</v>
       </c>
       <c r="E51" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="G51" t="s">
+        <v>582</v>
+      </c>
+      <c r="H51" t="s">
+        <v>580</v>
+      </c>
+      <c r="I51" t="s">
+        <v>278</v>
+      </c>
+      <c r="J51" t="s">
+        <v>278</v>
+      </c>
+      <c r="K51" t="s">
+        <v>278</v>
       </c>
       <c r="L51" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="M51" t="s">
+        <v>278</v>
+      </c>
+      <c r="N51" t="s">
+        <v>278</v>
+      </c>
+      <c r="R51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C52">
-        <v>-33.354889999999997</v>
+        <v>-33.387358999999996</v>
       </c>
       <c r="D52">
-        <v>151.395353</v>
-      </c>
-      <c r="E52" t="s">
-        <v>570</v>
+        <v>151.43526800000001</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
-      </c>
-      <c r="H52" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="G52" t="s">
+        <v>582</v>
       </c>
       <c r="I52" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="J52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C53">
-        <v>-30.852216670000001</v>
+        <v>-33.387306000000002</v>
       </c>
       <c r="D53">
-        <v>152.76621940000001</v>
-      </c>
-      <c r="E53" t="s">
-        <v>570</v>
+        <v>151.43533600000001</v>
       </c>
       <c r="F53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" t="s">
+        <v>582</v>
+      </c>
+      <c r="I53" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54">
+        <v>-33.387227000000003</v>
+      </c>
+      <c r="D54">
+        <v>151.43581800000001</v>
+      </c>
+      <c r="F54" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" t="s">
+        <v>582</v>
+      </c>
+      <c r="I54" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>-30.85197222</v>
+      </c>
+      <c r="D55">
+        <v>152.76586940000001</v>
+      </c>
+      <c r="F55" t="s">
         <v>254</v>
       </c>
-      <c r="K53" t="s">
+      <c r="G55" t="s">
+        <v>582</v>
+      </c>
+      <c r="L55" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54">
-        <v>-33.356659000000001</v>
-      </c>
-      <c r="D54">
-        <v>151.41300000000001</v>
-      </c>
-      <c r="E54" t="s">
-        <v>570</v>
-      </c>
-      <c r="F54" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" t="s">
-        <v>275</v>
-      </c>
-      <c r="I54" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55">
-        <v>-33.387358999999996</v>
-      </c>
-      <c r="D55">
-        <v>151.43526800000001</v>
-      </c>
-      <c r="E55" t="s">
-        <v>570</v>
-      </c>
-      <c r="F55" t="s">
-        <v>278</v>
-      </c>
-      <c r="H55" t="s">
-        <v>278</v>
-      </c>
-      <c r="I55" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56">
-        <v>-30.851544440000001</v>
+        <v>-30.85203611</v>
       </c>
       <c r="D56">
-        <v>152.7666639</v>
-      </c>
-      <c r="E56" t="s">
-        <v>570</v>
+        <v>152.76571670000001</v>
       </c>
       <c r="F56" t="s">
         <v>254</v>
       </c>
-      <c r="K56" t="s">
+      <c r="G56" t="s">
+        <v>582</v>
+      </c>
+      <c r="L56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C57">
-        <v>-33.507961000000002</v>
+        <v>-30.85256944</v>
       </c>
       <c r="D57">
-        <v>151.41870700000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>570</v>
+        <v>152.7656389</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" t="s">
-        <v>247</v>
-      </c>
-      <c r="J57" t="s">
-        <v>247</v>
-      </c>
-      <c r="K57" t="s">
-        <v>247</v>
+        <v>582</v>
       </c>
       <c r="L57" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>-30.851575</v>
+      </c>
+      <c r="D58">
+        <v>152.7665111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" t="s">
+        <v>582</v>
+      </c>
+      <c r="L58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59">
+        <v>-30.852216670000001</v>
+      </c>
+      <c r="D59">
+        <v>152.76621940000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>582</v>
+      </c>
+      <c r="L59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60">
+        <v>-30.851544440000001</v>
+      </c>
+      <c r="D60">
+        <v>152.7666639</v>
+      </c>
+      <c r="F60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" t="s">
+        <v>582</v>
+      </c>
+      <c r="L60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61">
+        <v>-17.203610999999999</v>
+      </c>
+      <c r="D61">
+        <v>145.40694400000001</v>
+      </c>
+      <c r="E61" t="s">
+        <v>575</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
+        <v>582</v>
+      </c>
+      <c r="M61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62">
+        <v>-33.356659000000001</v>
+      </c>
+      <c r="D62">
+        <v>151.41300000000001</v>
+      </c>
+      <c r="F62" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" t="s">
+        <v>582</v>
+      </c>
+      <c r="I62" t="s">
+        <v>275</v>
+      </c>
+      <c r="J62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B63" t="s">
         <v>196</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>-33.343783000000002</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>151.41454400000001</v>
       </c>
-      <c r="E58" t="s">
-        <v>570</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="F63" t="s">
         <v>275</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G63" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" t="s">
         <v>275</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J63" t="s">
         <v>275</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K63" t="s">
         <v>275</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M63" t="s">
         <v>275</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>37</v>
-      </c>
-      <c r="B59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59">
-        <v>-33.356900000000003</v>
-      </c>
-      <c r="D59">
-        <v>151.41311400000001</v>
-      </c>
-      <c r="E59" t="s">
-        <v>570</v>
-      </c>
-      <c r="F59" t="s">
-        <v>275</v>
-      </c>
-      <c r="H59" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60">
-        <v>-33.343713999999999</v>
-      </c>
-      <c r="D60">
-        <v>151.41483400000001</v>
-      </c>
-      <c r="E60" t="s">
-        <v>570</v>
-      </c>
-      <c r="F60" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" t="s">
-        <v>275</v>
-      </c>
-      <c r="I60" t="s">
-        <v>275</v>
-      </c>
-      <c r="L60" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61">
-        <v>-33.344344999999997</v>
-      </c>
-      <c r="D61">
-        <v>151.41564099999999</v>
-      </c>
-      <c r="E61" t="s">
-        <v>570</v>
-      </c>
-      <c r="F61" t="s">
-        <v>275</v>
-      </c>
-      <c r="H61" t="s">
-        <v>275</v>
-      </c>
-      <c r="I61" t="s">
-        <v>275</v>
-      </c>
-      <c r="J61" t="s">
-        <v>275</v>
-      </c>
-      <c r="L61" t="s">
-        <v>275</v>
-      </c>
-      <c r="M61" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62">
-        <v>-33.355251000000003</v>
-      </c>
-      <c r="D62">
-        <v>151.395794</v>
-      </c>
-      <c r="E62" t="s">
-        <v>570</v>
-      </c>
-      <c r="F62" t="s">
-        <v>272</v>
-      </c>
-      <c r="H62" t="s">
-        <v>272</v>
-      </c>
-      <c r="I62" t="s">
-        <v>272</v>
-      </c>
-      <c r="L62" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63">
-        <v>-30.85197222</v>
-      </c>
-      <c r="D63">
-        <v>152.76586940000001</v>
-      </c>
-      <c r="E63" t="s">
-        <v>570</v>
-      </c>
-      <c r="F63" t="s">
-        <v>254</v>
-      </c>
-      <c r="K63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>53</v>
       </c>
       <c r="B64" t="s">
         <v>196</v>
       </c>
       <c r="C64">
-        <v>-33.343905999999997</v>
+        <v>-33.356900000000003</v>
       </c>
       <c r="D64">
-        <v>151.413118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>570</v>
+        <v>151.41311400000001</v>
       </c>
       <c r="F64" t="s">
         <v>275</v>
       </c>
-      <c r="H64" t="s">
-        <v>275</v>
+      <c r="G64" t="s">
+        <v>582</v>
       </c>
       <c r="I64" t="s">
         <v>275</v>
       </c>
-      <c r="L64" t="s">
+      <c r="J64" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65">
-        <v>-33.387306000000002</v>
+        <v>-33.343713999999999</v>
       </c>
       <c r="D65">
-        <v>151.43533600000001</v>
-      </c>
-      <c r="E65" t="s">
-        <v>570</v>
+        <v>151.41483400000001</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
-      </c>
-      <c r="H65" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="G65" t="s">
+        <v>582</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="J65" t="s">
+        <v>275</v>
+      </c>
+      <c r="M65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66">
+        <v>-33.344344999999997</v>
+      </c>
+      <c r="D66">
+        <v>151.41564099999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" t="s">
+        <v>582</v>
+      </c>
+      <c r="I66" t="s">
+        <v>275</v>
+      </c>
+      <c r="J66" t="s">
+        <v>275</v>
+      </c>
+      <c r="K66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M66" t="s">
+        <v>275</v>
+      </c>
+      <c r="N66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67">
+        <v>-33.343905999999997</v>
+      </c>
+      <c r="D67">
+        <v>151.413118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" t="s">
+        <v>582</v>
+      </c>
+      <c r="I67" t="s">
+        <v>275</v>
+      </c>
+      <c r="J67" t="s">
+        <v>275</v>
+      </c>
+      <c r="M67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68">
+        <v>-33.354889999999997</v>
+      </c>
+      <c r="D68">
+        <v>151.395353</v>
+      </c>
+      <c r="F68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="s">
+        <v>582</v>
+      </c>
+      <c r="I68" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69">
+        <v>-33.355251000000003</v>
+      </c>
+      <c r="D69">
+        <v>151.395794</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="s">
+        <v>582</v>
+      </c>
+      <c r="I69" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" t="s">
+        <v>272</v>
+      </c>
+      <c r="M69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" t="s">
         <v>193</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>-33.354874000000002</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>151.395883</v>
       </c>
-      <c r="E66" t="s">
-        <v>570</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="F70" t="s">
         <v>272</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G70" t="s">
+        <v>582</v>
+      </c>
+      <c r="I70" t="s">
         <v>272</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J70" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67">
-        <v>-30.85203611</v>
-      </c>
-      <c r="D67">
-        <v>152.76571670000001</v>
-      </c>
-      <c r="E67" t="s">
-        <v>570</v>
-      </c>
-      <c r="F67" t="s">
-        <v>254</v>
-      </c>
-      <c r="K67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68">
-        <v>-30.85256944</v>
-      </c>
-      <c r="D68">
-        <v>152.7656389</v>
-      </c>
-      <c r="E68" t="s">
-        <v>570</v>
-      </c>
-      <c r="F68" t="s">
-        <v>254</v>
-      </c>
-      <c r="K68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69">
-        <v>-33.387227000000003</v>
-      </c>
-      <c r="D69">
-        <v>151.43581800000001</v>
-      </c>
-      <c r="E69" t="s">
-        <v>570</v>
-      </c>
-      <c r="F69" t="s">
-        <v>278</v>
-      </c>
-      <c r="H69" t="s">
-        <v>278</v>
-      </c>
-      <c r="I69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70">
-        <v>-30.851575</v>
-      </c>
-      <c r="D70">
-        <v>152.7665111</v>
-      </c>
-      <c r="E70" t="s">
-        <v>570</v>
-      </c>
-      <c r="F70" t="s">
-        <v>254</v>
-      </c>
-      <c r="K70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -6058,20 +6221,17 @@
       <c r="D71">
         <v>150.76732999999999</v>
       </c>
-      <c r="E71" t="s">
-        <v>570</v>
-      </c>
       <c r="F71" t="s">
         <v>274</v>
       </c>
-      <c r="H71" t="s">
-        <v>274</v>
-      </c>
       <c r="I71" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -6084,20 +6244,17 @@
       <c r="D72">
         <v>151.21685400000001</v>
       </c>
-      <c r="E72" t="s">
-        <v>570</v>
-      </c>
       <c r="F72" t="s">
         <v>277</v>
       </c>
-      <c r="H72" t="s">
-        <v>277</v>
-      </c>
       <c r="I72" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -6116,17 +6273,17 @@
       <c r="F73" t="s">
         <v>244</v>
       </c>
-      <c r="K73" t="s">
-        <v>244</v>
-      </c>
       <c r="L73" t="s">
         <v>244</v>
       </c>
-      <c r="N73" t="s">
+      <c r="M73" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -6145,14 +6302,14 @@
       <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>279</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6171,20 +6328,20 @@
       <c r="F75" t="s">
         <v>246</v>
       </c>
-      <c r="H75" t="s">
-        <v>246</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="I75" t="s">
         <v>246</v>
       </c>
       <c r="L75" t="s">
         <v>246</v>
       </c>
-      <c r="N75" t="s">
+      <c r="M75" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -6203,20 +6360,20 @@
       <c r="F76" t="s">
         <v>248</v>
       </c>
-      <c r="H76" t="s">
-        <v>248</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="I76" t="s">
         <v>248</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
       </c>
-      <c r="N76" t="s">
+      <c r="M76" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -6235,17 +6392,17 @@
       <c r="F77" t="s">
         <v>283</v>
       </c>
-      <c r="K77" t="s">
-        <v>283</v>
-      </c>
       <c r="L77" t="s">
         <v>283</v>
       </c>
-      <c r="N77" t="s">
+      <c r="M77" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -6264,17 +6421,17 @@
       <c r="F78" t="s">
         <v>252</v>
       </c>
-      <c r="K78" t="s">
-        <v>252</v>
-      </c>
       <c r="L78" t="s">
         <v>252</v>
       </c>
-      <c r="N78" t="s">
+      <c r="M78" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -6293,17 +6450,17 @@
       <c r="F79" t="s">
         <v>259</v>
       </c>
-      <c r="K79" t="s">
-        <v>259</v>
-      </c>
       <c r="L79" t="s">
         <v>259</v>
       </c>
-      <c r="N79" t="s">
+      <c r="M79" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -6322,17 +6479,17 @@
       <c r="F80" t="s">
         <v>260</v>
       </c>
-      <c r="K80" t="s">
-        <v>260</v>
-      </c>
       <c r="L80" t="s">
         <v>260</v>
       </c>
-      <c r="N80" t="s">
+      <c r="M80" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -6351,17 +6508,17 @@
       <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="K81" t="s">
-        <v>280</v>
-      </c>
       <c r="L81" t="s">
         <v>280</v>
       </c>
-      <c r="N81" t="s">
+      <c r="M81" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -6380,17 +6537,17 @@
       <c r="F82" t="s">
         <v>246</v>
       </c>
-      <c r="K82" t="s">
-        <v>246</v>
-      </c>
       <c r="L82" t="s">
         <v>246</v>
       </c>
-      <c r="N82" t="s">
+      <c r="M82" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -6409,17 +6566,17 @@
       <c r="F83" t="s">
         <v>244</v>
       </c>
-      <c r="K83" t="s">
-        <v>244</v>
-      </c>
       <c r="L83" t="s">
         <v>244</v>
       </c>
-      <c r="N83" t="s">
+      <c r="M83" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -6438,17 +6595,17 @@
       <c r="F84" t="s">
         <v>244</v>
       </c>
-      <c r="K84" t="s">
-        <v>244</v>
-      </c>
       <c r="L84" t="s">
         <v>244</v>
       </c>
-      <c r="N84" t="s">
+      <c r="M84" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -6467,20 +6624,20 @@
       <c r="F85" t="s">
         <v>246</v>
       </c>
-      <c r="H85" t="s">
-        <v>246</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="I85" t="s">
         <v>246</v>
       </c>
       <c r="L85" t="s">
         <v>246</v>
       </c>
-      <c r="N85" t="s">
+      <c r="M85" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -6499,17 +6656,17 @@
       <c r="F86" t="s">
         <v>244</v>
       </c>
-      <c r="K86" t="s">
-        <v>244</v>
-      </c>
       <c r="L86" t="s">
         <v>244</v>
       </c>
-      <c r="N86" t="s">
+      <c r="M86" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -6528,14 +6685,14 @@
       <c r="F87" t="s">
         <v>248</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>248</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -6554,17 +6711,17 @@
       <c r="F88" t="s">
         <v>263</v>
       </c>
-      <c r="K88" t="s">
-        <v>263</v>
-      </c>
       <c r="L88" t="s">
         <v>263</v>
       </c>
-      <c r="N88" t="s">
+      <c r="M88" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -6583,17 +6740,17 @@
       <c r="F89" t="s">
         <v>259</v>
       </c>
-      <c r="K89" t="s">
-        <v>259</v>
-      </c>
       <c r="L89" t="s">
         <v>259</v>
       </c>
-      <c r="N89" t="s">
+      <c r="M89" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -6612,17 +6769,17 @@
       <c r="F90" t="s">
         <v>263</v>
       </c>
-      <c r="K90" t="s">
-        <v>263</v>
-      </c>
       <c r="L90" t="s">
         <v>263</v>
       </c>
-      <c r="N90" t="s">
+      <c r="M90" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -6641,20 +6798,20 @@
       <c r="F91" t="s">
         <v>248</v>
       </c>
-      <c r="H91" t="s">
-        <v>248</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="I91" t="s">
         <v>248</v>
       </c>
       <c r="L91" t="s">
         <v>248</v>
       </c>
-      <c r="N91" t="s">
+      <c r="M91" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -6673,17 +6830,17 @@
       <c r="F92" t="s">
         <v>264</v>
       </c>
-      <c r="K92" t="s">
-        <v>264</v>
-      </c>
       <c r="L92" t="s">
         <v>264</v>
       </c>
-      <c r="N92" t="s">
+      <c r="M92" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -6702,20 +6859,20 @@
       <c r="F93" t="s">
         <v>246</v>
       </c>
-      <c r="H93" t="s">
-        <v>246</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="I93" t="s">
         <v>246</v>
       </c>
       <c r="L93" t="s">
         <v>246</v>
       </c>
-      <c r="N93" t="s">
+      <c r="M93" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -6734,17 +6891,17 @@
       <c r="F94" t="s">
         <v>259</v>
       </c>
-      <c r="K94" t="s">
-        <v>259</v>
-      </c>
       <c r="L94" t="s">
         <v>259</v>
       </c>
-      <c r="N94" t="s">
+      <c r="M94" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -6763,17 +6920,17 @@
       <c r="F95" t="s">
         <v>267</v>
       </c>
-      <c r="K95" t="s">
-        <v>267</v>
-      </c>
       <c r="L95" t="s">
         <v>267</v>
       </c>
-      <c r="N95" t="s">
+      <c r="M95" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -6792,14 +6949,14 @@
       <c r="F96" t="s">
         <v>248</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>248</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -6818,20 +6975,20 @@
       <c r="F97" t="s">
         <v>246</v>
       </c>
-      <c r="H97" t="s">
-        <v>246</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="I97" t="s">
         <v>246</v>
       </c>
       <c r="L97" t="s">
         <v>246</v>
       </c>
-      <c r="N97" t="s">
+      <c r="M97" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -6850,17 +7007,17 @@
       <c r="F98" t="s">
         <v>263</v>
       </c>
-      <c r="K98" t="s">
-        <v>263</v>
-      </c>
       <c r="L98" t="s">
         <v>263</v>
       </c>
-      <c r="N98" t="s">
+      <c r="M98" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -6879,17 +7036,17 @@
       <c r="F99" t="s">
         <v>252</v>
       </c>
-      <c r="K99" t="s">
-        <v>252</v>
-      </c>
       <c r="L99" t="s">
         <v>252</v>
       </c>
-      <c r="N99" t="s">
+      <c r="M99" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -6908,17 +7065,17 @@
       <c r="F100" t="s">
         <v>259</v>
       </c>
-      <c r="K100" t="s">
-        <v>259</v>
-      </c>
       <c r="L100" t="s">
         <v>259</v>
       </c>
-      <c r="N100" t="s">
+      <c r="M100" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -6937,17 +7094,17 @@
       <c r="F101" t="s">
         <v>263</v>
       </c>
-      <c r="K101" t="s">
-        <v>263</v>
-      </c>
       <c r="L101" t="s">
         <v>263</v>
       </c>
-      <c r="N101" t="s">
+      <c r="M101" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -6966,20 +7123,20 @@
       <c r="F102" t="s">
         <v>248</v>
       </c>
-      <c r="H102" t="s">
-        <v>248</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="I102" t="s">
         <v>248</v>
       </c>
       <c r="L102" t="s">
         <v>248</v>
       </c>
-      <c r="N102" t="s">
+      <c r="M102" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>150</v>
       </c>
@@ -6998,20 +7155,20 @@
       <c r="F103" t="s">
         <v>252</v>
       </c>
-      <c r="H103" t="s">
-        <v>252</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="I103" t="s">
         <v>252</v>
       </c>
       <c r="L103" t="s">
         <v>252</v>
       </c>
-      <c r="N103" t="s">
+      <c r="M103" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -7030,20 +7187,20 @@
       <c r="F104" t="s">
         <v>252</v>
       </c>
-      <c r="H104" t="s">
-        <v>252</v>
-      </c>
-      <c r="K104" t="s">
+      <c r="I104" t="s">
         <v>252</v>
       </c>
       <c r="L104" t="s">
         <v>252</v>
       </c>
-      <c r="N104" t="s">
+      <c r="M104" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -7062,17 +7219,17 @@
       <c r="F105" t="s">
         <v>252</v>
       </c>
-      <c r="K105" t="s">
-        <v>252</v>
-      </c>
       <c r="L105" t="s">
         <v>252</v>
       </c>
-      <c r="N105" t="s">
+      <c r="M105" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -7091,17 +7248,17 @@
       <c r="F106" t="s">
         <v>259</v>
       </c>
-      <c r="K106" t="s">
-        <v>259</v>
-      </c>
       <c r="L106" t="s">
         <v>259</v>
       </c>
-      <c r="N106" t="s">
+      <c r="M106" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>171</v>
       </c>
@@ -7120,20 +7277,20 @@
       <c r="F107" t="s">
         <v>246</v>
       </c>
-      <c r="H107" t="s">
-        <v>246</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="I107" t="s">
         <v>246</v>
       </c>
       <c r="L107" t="s">
         <v>246</v>
       </c>
-      <c r="N107" t="s">
+      <c r="M107" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -7152,17 +7309,17 @@
       <c r="F108" t="s">
         <v>252</v>
       </c>
-      <c r="K108" t="s">
-        <v>252</v>
-      </c>
       <c r="L108" t="s">
         <v>252</v>
       </c>
-      <c r="N108" t="s">
+      <c r="M108" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>177</v>
       </c>
@@ -7181,17 +7338,17 @@
       <c r="F109" t="s">
         <v>259</v>
       </c>
-      <c r="K109" t="s">
-        <v>259</v>
-      </c>
       <c r="L109" t="s">
         <v>259</v>
       </c>
-      <c r="N109" t="s">
+      <c r="M109" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -7210,17 +7367,17 @@
       <c r="F110" t="s">
         <v>281</v>
       </c>
-      <c r="K110" t="s">
-        <v>281</v>
-      </c>
       <c r="L110" t="s">
         <v>281</v>
       </c>
-      <c r="N110" t="s">
+      <c r="M110" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>182</v>
       </c>
@@ -7239,17 +7396,17 @@
       <c r="F111" t="s">
         <v>244</v>
       </c>
-      <c r="K111" t="s">
-        <v>244</v>
-      </c>
       <c r="L111" t="s">
         <v>244</v>
       </c>
-      <c r="N111" t="s">
+      <c r="M111" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>183</v>
       </c>
@@ -7268,17 +7425,17 @@
       <c r="F112" t="s">
         <v>263</v>
       </c>
-      <c r="K112" t="s">
-        <v>263</v>
-      </c>
       <c r="L112" t="s">
         <v>263</v>
       </c>
-      <c r="N112" t="s">
+      <c r="M112" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>185</v>
       </c>
@@ -7297,17 +7454,17 @@
       <c r="F113" t="s">
         <v>244</v>
       </c>
-      <c r="K113" t="s">
-        <v>244</v>
-      </c>
       <c r="L113" t="s">
         <v>244</v>
       </c>
-      <c r="N113" t="s">
+      <c r="M113" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -7326,20 +7483,20 @@
       <c r="F114" t="s">
         <v>270</v>
       </c>
-      <c r="I114" t="s">
-        <v>270</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="J114" t="s">
         <v>270</v>
       </c>
       <c r="L114" t="s">
         <v>270</v>
       </c>
-      <c r="O114" t="s">
+      <c r="M114" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -7358,17 +7515,17 @@
       <c r="F115" t="s">
         <v>282</v>
       </c>
-      <c r="K115" t="s">
-        <v>282</v>
-      </c>
       <c r="L115" t="s">
         <v>282</v>
       </c>
-      <c r="O115" t="s">
+      <c r="M115" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -7387,20 +7544,20 @@
       <c r="F116" t="s">
         <v>249</v>
       </c>
-      <c r="I116" t="s">
-        <v>249</v>
-      </c>
-      <c r="K116" t="s">
+      <c r="J116" t="s">
         <v>249</v>
       </c>
       <c r="L116" t="s">
         <v>249</v>
       </c>
-      <c r="O116" t="s">
+      <c r="M116" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -7419,20 +7576,20 @@
       <c r="F117" t="s">
         <v>271</v>
       </c>
-      <c r="I117" t="s">
-        <v>271</v>
-      </c>
-      <c r="K117" t="s">
+      <c r="J117" t="s">
         <v>271</v>
       </c>
       <c r="L117" t="s">
         <v>271</v>
       </c>
-      <c r="O117" t="s">
+      <c r="M117" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -7451,20 +7608,20 @@
       <c r="F118" t="s">
         <v>271</v>
       </c>
-      <c r="I118" t="s">
-        <v>271</v>
-      </c>
-      <c r="K118" t="s">
+      <c r="J118" t="s">
         <v>271</v>
       </c>
       <c r="L118" t="s">
         <v>271</v>
       </c>
-      <c r="O118" t="s">
+      <c r="M118" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -7483,20 +7640,20 @@
       <c r="F119" t="s">
         <v>270</v>
       </c>
-      <c r="I119" t="s">
-        <v>270</v>
-      </c>
-      <c r="K119" t="s">
+      <c r="J119" t="s">
         <v>270</v>
       </c>
       <c r="L119" t="s">
         <v>270</v>
       </c>
-      <c r="O119" t="s">
+      <c r="M119" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -7515,20 +7672,20 @@
       <c r="F120" t="s">
         <v>255</v>
       </c>
-      <c r="I120" t="s">
-        <v>255</v>
-      </c>
-      <c r="K120" t="s">
+      <c r="J120" t="s">
         <v>255</v>
       </c>
       <c r="L120" t="s">
         <v>255</v>
       </c>
-      <c r="O120" t="s">
+      <c r="M120" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>66</v>
       </c>
@@ -7547,20 +7704,20 @@
       <c r="F121" t="s">
         <v>257</v>
       </c>
-      <c r="I121" t="s">
-        <v>257</v>
-      </c>
-      <c r="K121" t="s">
+      <c r="J121" t="s">
         <v>257</v>
       </c>
       <c r="L121" t="s">
         <v>257</v>
       </c>
-      <c r="O121" t="s">
+      <c r="M121" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>71</v>
       </c>
@@ -7579,14 +7736,14 @@
       <c r="F122" t="s">
         <v>271</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>271</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -7605,20 +7762,20 @@
       <c r="F123" t="s">
         <v>257</v>
       </c>
-      <c r="I123" t="s">
-        <v>257</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="J123" t="s">
         <v>257</v>
       </c>
       <c r="L123" t="s">
         <v>257</v>
       </c>
-      <c r="O123" t="s">
+      <c r="M123" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>78</v>
       </c>
@@ -7637,20 +7794,20 @@
       <c r="F124" t="s">
         <v>258</v>
       </c>
-      <c r="I124" t="s">
-        <v>258</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="J124" t="s">
         <v>258</v>
       </c>
       <c r="L124" t="s">
         <v>258</v>
       </c>
-      <c r="O124" t="s">
+      <c r="M124" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>89</v>
       </c>
@@ -7669,20 +7826,20 @@
       <c r="F125" t="s">
         <v>257</v>
       </c>
-      <c r="I125" t="s">
-        <v>257</v>
-      </c>
-      <c r="K125" t="s">
+      <c r="J125" t="s">
         <v>257</v>
       </c>
       <c r="L125" t="s">
         <v>257</v>
       </c>
-      <c r="O125" t="s">
+      <c r="M125" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -7701,20 +7858,20 @@
       <c r="F126" t="s">
         <v>270</v>
       </c>
-      <c r="I126" t="s">
-        <v>270</v>
-      </c>
-      <c r="K126" t="s">
+      <c r="J126" t="s">
         <v>270</v>
       </c>
       <c r="L126" t="s">
         <v>270</v>
       </c>
-      <c r="O126" t="s">
+      <c r="M126" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -7733,20 +7890,20 @@
       <c r="F127" t="s">
         <v>269</v>
       </c>
-      <c r="I127" t="s">
-        <v>269</v>
-      </c>
-      <c r="K127" t="s">
+      <c r="J127" t="s">
         <v>269</v>
       </c>
       <c r="L127" t="s">
         <v>269</v>
       </c>
-      <c r="O127" t="s">
+      <c r="M127" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -7765,20 +7922,20 @@
       <c r="F128" t="s">
         <v>261</v>
       </c>
-      <c r="I128" t="s">
-        <v>261</v>
-      </c>
-      <c r="K128" t="s">
+      <c r="J128" t="s">
         <v>261</v>
       </c>
       <c r="L128" t="s">
         <v>261</v>
       </c>
-      <c r="O128" t="s">
+      <c r="M128" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>102</v>
       </c>
@@ -7797,17 +7954,17 @@
       <c r="F129" t="s">
         <v>262</v>
       </c>
-      <c r="K129" t="s">
-        <v>262</v>
-      </c>
       <c r="L129" t="s">
         <v>262</v>
       </c>
-      <c r="O129" t="s">
+      <c r="M129" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -7826,20 +7983,20 @@
       <c r="F130" t="s">
         <v>255</v>
       </c>
-      <c r="I130" t="s">
-        <v>255</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="J130" t="s">
         <v>255</v>
       </c>
       <c r="L130" t="s">
         <v>255</v>
       </c>
-      <c r="O130" t="s">
+      <c r="M130" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>109</v>
       </c>
@@ -7858,11 +8015,11 @@
       <c r="F131" t="s">
         <v>284</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -7881,20 +8038,20 @@
       <c r="F132" t="s">
         <v>255</v>
       </c>
-      <c r="I132" t="s">
-        <v>255</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="J132" t="s">
         <v>255</v>
       </c>
       <c r="L132" t="s">
         <v>255</v>
       </c>
-      <c r="O132" t="s">
+      <c r="M132" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>117</v>
       </c>
@@ -7913,17 +8070,17 @@
       <c r="F133" t="s">
         <v>266</v>
       </c>
-      <c r="K133" t="s">
-        <v>266</v>
-      </c>
       <c r="L133" t="s">
         <v>266</v>
       </c>
-      <c r="O133" t="s">
+      <c r="M133" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -7942,11 +8099,11 @@
       <c r="F134" t="s">
         <v>284</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>122</v>
       </c>
@@ -7965,17 +8122,17 @@
       <c r="F135" t="s">
         <v>266</v>
       </c>
-      <c r="K135" t="s">
-        <v>266</v>
-      </c>
       <c r="L135" t="s">
         <v>266</v>
       </c>
-      <c r="O135" t="s">
+      <c r="M135" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -7994,20 +8151,20 @@
       <c r="F136" t="s">
         <v>257</v>
       </c>
-      <c r="I136" t="s">
-        <v>257</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="J136" t="s">
         <v>257</v>
       </c>
       <c r="L136" t="s">
         <v>257</v>
       </c>
-      <c r="O136" t="s">
+      <c r="M136" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -8026,20 +8183,20 @@
       <c r="F137" t="s">
         <v>261</v>
       </c>
-      <c r="I137" t="s">
-        <v>261</v>
-      </c>
-      <c r="K137" t="s">
+      <c r="J137" t="s">
         <v>261</v>
       </c>
       <c r="L137" t="s">
         <v>261</v>
       </c>
-      <c r="O137" t="s">
+      <c r="M137" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -8058,20 +8215,20 @@
       <c r="F138" t="s">
         <v>270</v>
       </c>
-      <c r="I138" t="s">
-        <v>270</v>
-      </c>
-      <c r="K138" t="s">
+      <c r="J138" t="s">
         <v>270</v>
       </c>
       <c r="L138" t="s">
         <v>270</v>
       </c>
-      <c r="O138" t="s">
+      <c r="M138" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -8090,20 +8247,20 @@
       <c r="F139" t="s">
         <v>285</v>
       </c>
-      <c r="I139" t="s">
-        <v>285</v>
-      </c>
-      <c r="K139" t="s">
+      <c r="J139" t="s">
         <v>285</v>
       </c>
       <c r="L139" t="s">
         <v>285</v>
       </c>
-      <c r="O139" t="s">
+      <c r="M139" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -8122,20 +8279,20 @@
       <c r="F140" t="s">
         <v>255</v>
       </c>
-      <c r="I140" t="s">
-        <v>255</v>
-      </c>
-      <c r="K140" t="s">
+      <c r="J140" t="s">
         <v>255</v>
       </c>
       <c r="L140" t="s">
         <v>255</v>
       </c>
-      <c r="O140" t="s">
+      <c r="M140" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>131</v>
       </c>
@@ -8154,14 +8311,14 @@
       <c r="F141" t="s">
         <v>271</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>271</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>132</v>
       </c>
@@ -8180,20 +8337,20 @@
       <c r="F142" t="s">
         <v>257</v>
       </c>
-      <c r="I142" t="s">
-        <v>257</v>
-      </c>
-      <c r="K142" t="s">
+      <c r="J142" t="s">
         <v>257</v>
       </c>
       <c r="L142" t="s">
         <v>257</v>
       </c>
-      <c r="O142" t="s">
+      <c r="M142" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -8212,20 +8369,20 @@
       <c r="F143" t="s">
         <v>270</v>
       </c>
-      <c r="I143" t="s">
-        <v>270</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="J143" t="s">
         <v>270</v>
       </c>
       <c r="L143" t="s">
         <v>270</v>
       </c>
-      <c r="O143" t="s">
+      <c r="M143" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -8244,11 +8401,11 @@
       <c r="F144" t="s">
         <v>284</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -8267,20 +8424,20 @@
       <c r="F145" t="s">
         <v>261</v>
       </c>
-      <c r="I145" t="s">
-        <v>261</v>
-      </c>
-      <c r="K145" t="s">
+      <c r="J145" t="s">
         <v>261</v>
       </c>
       <c r="L145" t="s">
         <v>261</v>
       </c>
-      <c r="O145" t="s">
+      <c r="M145" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -8299,11 +8456,11 @@
       <c r="F146" t="s">
         <v>284</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -8322,20 +8479,20 @@
       <c r="F147" t="s">
         <v>255</v>
       </c>
-      <c r="I147" t="s">
-        <v>255</v>
-      </c>
-      <c r="K147" t="s">
+      <c r="J147" t="s">
         <v>255</v>
       </c>
       <c r="L147" t="s">
         <v>255</v>
       </c>
-      <c r="O147" t="s">
+      <c r="M147" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -8354,20 +8511,20 @@
       <c r="F148" t="s">
         <v>269</v>
       </c>
-      <c r="I148" t="s">
-        <v>269</v>
-      </c>
-      <c r="K148" t="s">
+      <c r="J148" t="s">
         <v>269</v>
       </c>
       <c r="L148" t="s">
         <v>269</v>
       </c>
-      <c r="O148" t="s">
+      <c r="M148" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -8386,20 +8543,20 @@
       <c r="F149" t="s">
         <v>285</v>
       </c>
-      <c r="I149" t="s">
-        <v>285</v>
-      </c>
-      <c r="K149" t="s">
+      <c r="J149" t="s">
         <v>285</v>
       </c>
       <c r="L149" t="s">
         <v>285</v>
       </c>
-      <c r="O149" t="s">
+      <c r="M149" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -8418,17 +8575,17 @@
       <c r="F150" t="s">
         <v>266</v>
       </c>
-      <c r="K150" t="s">
-        <v>266</v>
-      </c>
       <c r="L150" t="s">
         <v>266</v>
       </c>
-      <c r="O150" t="s">
+      <c r="M150" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -8447,20 +8604,20 @@
       <c r="F151" t="s">
         <v>269</v>
       </c>
-      <c r="I151" t="s">
-        <v>269</v>
-      </c>
-      <c r="K151" t="s">
+      <c r="J151" t="s">
         <v>269</v>
       </c>
       <c r="L151" t="s">
         <v>269</v>
       </c>
-      <c r="O151" t="s">
+      <c r="M151" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -8479,20 +8636,20 @@
       <c r="F152" t="s">
         <v>261</v>
       </c>
-      <c r="I152" t="s">
-        <v>261</v>
-      </c>
-      <c r="K152" t="s">
+      <c r="J152" t="s">
         <v>261</v>
       </c>
       <c r="L152" t="s">
         <v>261</v>
       </c>
-      <c r="O152" t="s">
+      <c r="M152" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -8511,11 +8668,11 @@
       <c r="F153" t="s">
         <v>284</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -8534,20 +8691,20 @@
       <c r="F154" t="s">
         <v>261</v>
       </c>
-      <c r="I154" t="s">
-        <v>261</v>
-      </c>
-      <c r="K154" t="s">
+      <c r="J154" t="s">
         <v>261</v>
       </c>
       <c r="L154" t="s">
         <v>261</v>
       </c>
-      <c r="O154" t="s">
+      <c r="M154" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -8566,20 +8723,20 @@
       <c r="F155" t="s">
         <v>261</v>
       </c>
-      <c r="I155" t="s">
-        <v>261</v>
-      </c>
-      <c r="K155" t="s">
+      <c r="J155" t="s">
         <v>261</v>
       </c>
       <c r="L155" t="s">
         <v>261</v>
       </c>
-      <c r="O155" t="s">
+      <c r="M155" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P155" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8598,17 +8755,17 @@
       <c r="F156" t="s">
         <v>266</v>
       </c>
-      <c r="K156" t="s">
-        <v>266</v>
-      </c>
       <c r="L156" t="s">
         <v>266</v>
       </c>
-      <c r="O156" t="s">
+      <c r="M156" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -8627,20 +8784,20 @@
       <c r="F157" t="s">
         <v>257</v>
       </c>
-      <c r="I157" t="s">
-        <v>257</v>
-      </c>
-      <c r="K157" t="s">
+      <c r="J157" t="s">
         <v>257</v>
       </c>
       <c r="L157" t="s">
         <v>257</v>
       </c>
-      <c r="O157" t="s">
+      <c r="M157" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -8659,17 +8816,17 @@
       <c r="F158" t="s">
         <v>266</v>
       </c>
-      <c r="K158" t="s">
-        <v>266</v>
-      </c>
       <c r="L158" t="s">
         <v>266</v>
       </c>
-      <c r="O158" t="s">
+      <c r="M158" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -8688,20 +8845,20 @@
       <c r="F159" t="s">
         <v>269</v>
       </c>
-      <c r="I159" t="s">
-        <v>269</v>
-      </c>
-      <c r="K159" t="s">
+      <c r="J159" t="s">
         <v>269</v>
       </c>
       <c r="L159" t="s">
         <v>269</v>
       </c>
-      <c r="O159" t="s">
+      <c r="M159" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -8720,20 +8877,20 @@
       <c r="F160" t="s">
         <v>271</v>
       </c>
-      <c r="I160" t="s">
-        <v>271</v>
-      </c>
-      <c r="K160" t="s">
+      <c r="J160" t="s">
         <v>271</v>
       </c>
       <c r="L160" t="s">
         <v>271</v>
       </c>
-      <c r="O160" t="s">
+      <c r="M160" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -8752,20 +8909,20 @@
       <c r="F161" t="s">
         <v>285</v>
       </c>
-      <c r="I161" t="s">
-        <v>285</v>
-      </c>
-      <c r="K161" t="s">
+      <c r="J161" t="s">
         <v>285</v>
       </c>
       <c r="L161" t="s">
         <v>285</v>
       </c>
-      <c r="O161" t="s">
+      <c r="M161" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -8784,20 +8941,20 @@
       <c r="F162" t="s">
         <v>285</v>
       </c>
-      <c r="I162" t="s">
-        <v>285</v>
-      </c>
-      <c r="K162" t="s">
+      <c r="J162" t="s">
         <v>285</v>
       </c>
       <c r="L162" t="s">
         <v>285</v>
       </c>
-      <c r="O162" t="s">
+      <c r="M162" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -8816,20 +8973,20 @@
       <c r="F163" t="s">
         <v>270</v>
       </c>
-      <c r="I163" t="s">
-        <v>270</v>
-      </c>
-      <c r="K163" t="s">
+      <c r="J163" t="s">
         <v>270</v>
       </c>
       <c r="L163" t="s">
         <v>270</v>
       </c>
-      <c r="O163" t="s">
+      <c r="M163" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -8848,20 +9005,20 @@
       <c r="F164" t="s">
         <v>255</v>
       </c>
-      <c r="I164" t="s">
-        <v>255</v>
-      </c>
-      <c r="K164" t="s">
+      <c r="J164" t="s">
         <v>255</v>
       </c>
       <c r="L164" t="s">
         <v>255</v>
       </c>
-      <c r="O164" t="s">
+      <c r="M164" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -8880,20 +9037,20 @@
       <c r="F165" t="s">
         <v>269</v>
       </c>
-      <c r="I165" t="s">
-        <v>269</v>
-      </c>
-      <c r="K165" t="s">
+      <c r="J165" t="s">
         <v>269</v>
       </c>
       <c r="L165" t="s">
         <v>269</v>
       </c>
-      <c r="O165" t="s">
+      <c r="M165" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -8912,20 +9069,20 @@
       <c r="F166" t="s">
         <v>271</v>
       </c>
-      <c r="I166" t="s">
-        <v>271</v>
-      </c>
-      <c r="K166" t="s">
+      <c r="J166" t="s">
         <v>271</v>
       </c>
       <c r="L166" t="s">
         <v>271</v>
       </c>
-      <c r="O166" t="s">
+      <c r="M166" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>186</v>
       </c>
@@ -8944,20 +9101,20 @@
       <c r="F167" t="s">
         <v>285</v>
       </c>
-      <c r="I167" t="s">
-        <v>285</v>
-      </c>
-      <c r="K167" t="s">
+      <c r="J167" t="s">
         <v>285</v>
       </c>
       <c r="L167" t="s">
         <v>285</v>
       </c>
-      <c r="O167" t="s">
+      <c r="M167" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -8976,20 +9133,20 @@
       <c r="F168" t="s">
         <v>269</v>
       </c>
-      <c r="I168" t="s">
-        <v>269</v>
-      </c>
-      <c r="K168" t="s">
+      <c r="J168" t="s">
         <v>269</v>
       </c>
       <c r="L168" t="s">
         <v>269</v>
       </c>
-      <c r="O168" t="s">
+      <c r="M168" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>553</v>
       </c>
@@ -9008,11 +9165,11 @@
       <c r="F169" t="s">
         <v>559</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>555</v>
       </c>
@@ -9031,11 +9188,11 @@
       <c r="F170" t="s">
         <v>559</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>556</v>
       </c>
@@ -9054,11 +9211,11 @@
       <c r="F171" t="s">
         <v>559</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>557</v>
       </c>
@@ -9077,11 +9234,11 @@
       <c r="F172" t="s">
         <v>559</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>558</v>
       </c>
@@ -9100,11 +9257,11 @@
       <c r="F173" t="s">
         <v>559</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>116</v>
       </c>
@@ -9123,11 +9280,11 @@
       <c r="F174" t="s">
         <v>265</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -9146,11 +9303,11 @@
       <c r="F175" t="s">
         <v>268</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -9163,17 +9320,14 @@
       <c r="D176">
         <v>152.140278</v>
       </c>
-      <c r="E176" t="s">
-        <v>569</v>
-      </c>
       <c r="F176" t="s">
         <v>288</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -9192,11 +9346,11 @@
       <c r="F177" t="s">
         <v>250</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -9215,11 +9369,11 @@
       <c r="F178" t="s">
         <v>253</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>64</v>
       </c>
@@ -9238,11 +9392,11 @@
       <c r="F179" t="s">
         <v>256</v>
       </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>79</v>
       </c>
@@ -9261,11 +9415,11 @@
       <c r="F180" t="s">
         <v>290</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>113</v>
       </c>
@@ -9284,11 +9438,11 @@
       <c r="F181" t="s">
         <v>256</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>119</v>
       </c>
@@ -9307,11 +9461,11 @@
       <c r="F182" t="s">
         <v>250</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>120</v>
       </c>
@@ -9330,11 +9484,11 @@
       <c r="F183" t="s">
         <v>291</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>125</v>
       </c>
@@ -9353,11 +9507,11 @@
       <c r="F184" t="s">
         <v>250</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>133</v>
       </c>
@@ -9376,11 +9530,11 @@
       <c r="F185" t="s">
         <v>250</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -9399,11 +9553,11 @@
       <c r="F186" t="s">
         <v>250</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>155</v>
       </c>
@@ -9422,11 +9576,11 @@
       <c r="F187" t="s">
         <v>256</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>157</v>
       </c>
@@ -9445,11 +9599,11 @@
       <c r="F188" t="s">
         <v>292</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -9468,11 +9622,11 @@
       <c r="F189" t="s">
         <v>256</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>173</v>
       </c>
@@ -9491,11 +9645,11 @@
       <c r="F190" t="s">
         <v>256</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>176</v>
       </c>
@@ -9514,11 +9668,11 @@
       <c r="F191" t="s">
         <v>256</v>
       </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -9531,14 +9685,11 @@
       <c r="D192">
         <v>150.31972200000001</v>
       </c>
-      <c r="E192" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>112</v>
       </c>
@@ -9551,11 +9702,8 @@
       <c r="D193">
         <v>143.91666699999999</v>
       </c>
-      <c r="E193" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>138</v>
       </c>
@@ -9568,17 +9716,14 @@
       <c r="D194">
         <v>151.071111</v>
       </c>
-      <c r="E194" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>287</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q194" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q194">
-      <sortCondition ref="G1:G194"/>
+  <autoFilter ref="A1:R194" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R194">
+      <sortCondition ref="H1:H194"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
